--- a/biology/Botanique/Genista_monspessulana/Genista_monspessulana.xlsx
+++ b/biology/Botanique/Genista_monspessulana/Genista_monspessulana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Genêt de Montpellier
-Genista monspessulana, le Genêt de Montpellier[2], est une espèce de plantes de la famille des Fabacées.
+Genista monspessulana, le Genêt de Montpellier, est une espèce de plantes de la famille des Fabacées.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Genista monspessulana pousse comme un arbuste qui atteint généralement des hauteurs inférieures à 3 mètres, rarement jusqu'à 5 m. L'écorce des branches est velue argentée-soyeuse.
 Le pétiole mesure moins de 5 mm de long. Le limbe est triplement penné. Les folioles mesurent 10 à 15 mm de long, généralement deux fois plus longues que larges, et l'avers lancéolé à obovale. Le dessus de la feuille est glabre, le dessous est poilu ou saillant. Les stipules mesurent moins de 2 mm.
@@ -547,10 +561,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition originale de Genista monspessulana s'étend de la Méditerranée à l'Asie Mineure et au Caucase. Il existe des localités au nord de l'Algérie, du Maroc, au Liban, à l'ouest de la Turquie, en Géorgie, dans les Balkans, en Albanie, en Grèce, en Italie (y compris la Sardaigne, la Sicile), au sud du Portugal, en Espagne, le sud de la France (y compris la Corse).
-C'est un néophyte dans de nombreuses régions du monde, par exemple aux Açores, à Hawaï, au Royaume-Uni, en Afrique du Sud, en Nouvelle-Zélande. Il est considéré comme une espèce envahissante sur la côte ouest des États-Unis. Sa vigueur reproductive et sa préférence pour les climats méditerranéens en font une espèce très prospère en Californie et dans le nord-ouest du Pacifique, où elle est considérée comme une mauvaise herbe nuisible, couvrant plus de 40 kilohectares[3]. Elle est encore plus répandue en Australie, où elle couvre 600 000 ha et est également considérée comme une mauvaise herbe nuisible[4]. La plante l'emporte souvent sur la végétation indigène, formant des champs denses où les autres espèces sont presque complètement évincées. Les peuplements de genêt de Montpellier peuvent être si épais qu'ils rendent les prairies et les pâturages inutiles pour les animaux sauvages et domestiques. D'autres effets nocifs sont sa capacité à faire de l'ombre aux semis d'arbres dans les zones reboisées, sa tendance à prendre feu et la toxicité de ses feuilles et de ses graines, qui contiennent des alcaloïdes toxiques pour de nombreux grands animaux domestiques.
+C'est un néophyte dans de nombreuses régions du monde, par exemple aux Açores, à Hawaï, au Royaume-Uni, en Afrique du Sud, en Nouvelle-Zélande. Il est considéré comme une espèce envahissante sur la côte ouest des États-Unis. Sa vigueur reproductive et sa préférence pour les climats méditerranéens en font une espèce très prospère en Californie et dans le nord-ouest du Pacifique, où elle est considérée comme une mauvaise herbe nuisible, couvrant plus de 40 kilohectares. Elle est encore plus répandue en Australie, où elle couvre 600 000 ha et est également considérée comme une mauvaise herbe nuisible. La plante l'emporte souvent sur la végétation indigène, formant des champs denses où les autres espèces sont presque complètement évincées. Les peuplements de genêt de Montpellier peuvent être si épais qu'ils rendent les prairies et les pâturages inutiles pour les animaux sauvages et domestiques. D'autres effets nocifs sont sa capacité à faire de l'ombre aux semis d'arbres dans les zones reboisées, sa tendance à prendre feu et la toxicité de ses feuilles et de ses graines, qui contiennent des alcaloïdes toxiques pour de nombreux grands animaux domestiques.
 </t>
         </is>
       </c>
@@ -579,10 +595,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fruit a pour parasite Bruchidius lividimanus, Bruchidius villosus, Cydia canariensis (nl), 
-Tychius cuprifer (pt), Exapion compactum. La feuille a pour parasite Phaiogramma faustinata (nl), Phyllonorycter telinella (en), Uromyces genistae. Le stipe a pour parasite Lepidapion argentatum, Arytinnis hakani (sv)[5].
+Tychius cuprifer (pt), Exapion compactum. La feuille a pour parasite Phaiogramma faustinata (nl), Phyllonorycter telinella (en), Uromyces genistae. Le stipe a pour parasite Lepidapion argentatum, Arytinnis hakani (sv).
 </t>
         </is>
       </c>
